--- a/data/pca/factorExposure/factorExposure_2009-10-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01019328381583737</v>
+        <v>0.0169221995586179</v>
       </c>
       <c r="C2">
-        <v>-0.002127287721683982</v>
+        <v>0.0008998003322177232</v>
       </c>
       <c r="D2">
-        <v>-0.004836818423022755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008818432776565494</v>
+      </c>
+      <c r="E2">
+        <v>0.001721256173171342</v>
+      </c>
+      <c r="F2">
+        <v>0.01215932516716069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1064696268827075</v>
+        <v>0.09358611614147633</v>
       </c>
       <c r="C4">
-        <v>-0.01436175907714226</v>
+        <v>0.01438539334396352</v>
       </c>
       <c r="D4">
-        <v>-0.06371713559914634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08412656522867841</v>
+      </c>
+      <c r="E4">
+        <v>0.02880332455270911</v>
+      </c>
+      <c r="F4">
+        <v>-0.03188036281975325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1417783442206573</v>
+        <v>0.158690285117963</v>
       </c>
       <c r="C6">
-        <v>-0.01956840879903404</v>
+        <v>0.02616112621872592</v>
       </c>
       <c r="D6">
-        <v>0.01978909505510767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02277798679207269</v>
+      </c>
+      <c r="E6">
+        <v>0.01024721496727916</v>
+      </c>
+      <c r="F6">
+        <v>-0.04438052628156854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07266388233807247</v>
+        <v>0.06345826210024279</v>
       </c>
       <c r="C7">
-        <v>0.00125150810569302</v>
+        <v>-0.001754533581030864</v>
       </c>
       <c r="D7">
-        <v>-0.03662405336964519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05309401581411866</v>
+      </c>
+      <c r="E7">
+        <v>0.01194869687488793</v>
+      </c>
+      <c r="F7">
+        <v>-0.04788290572675653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06136598974548348</v>
+        <v>0.0571636402118479</v>
       </c>
       <c r="C8">
-        <v>0.01317724570284222</v>
+        <v>-0.01351390217963938</v>
       </c>
       <c r="D8">
-        <v>-0.01294606204546907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03280569571100465</v>
+      </c>
+      <c r="E8">
+        <v>0.01796827321831626</v>
+      </c>
+      <c r="F8">
+        <v>0.02748479464634603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08099666708605685</v>
+        <v>0.07077586483986312</v>
       </c>
       <c r="C9">
-        <v>-0.01265597058143797</v>
+        <v>0.01021000836917152</v>
       </c>
       <c r="D9">
-        <v>-0.06729199759175435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08674442508878449</v>
+      </c>
+      <c r="E9">
+        <v>0.0235902302264053</v>
+      </c>
+      <c r="F9">
+        <v>-0.04763901086156749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0769420239775413</v>
+        <v>0.09288150381527627</v>
       </c>
       <c r="C10">
-        <v>-0.0076758062606999</v>
+        <v>0.02110536154950093</v>
       </c>
       <c r="D10">
-        <v>0.1609100118214882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.165649386508061</v>
+      </c>
+      <c r="E10">
+        <v>-0.0329533144419275</v>
+      </c>
+      <c r="F10">
+        <v>0.05539959857430056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09274896695568563</v>
+        <v>0.08784694998263362</v>
       </c>
       <c r="C11">
-        <v>-0.01221352370240098</v>
+        <v>0.01009800377590646</v>
       </c>
       <c r="D11">
-        <v>-0.09417377943801723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1172781654384152</v>
+      </c>
+      <c r="E11">
+        <v>0.04647983310349366</v>
+      </c>
+      <c r="F11">
+        <v>-0.02297527075514443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1010834757627535</v>
+        <v>0.09190593667594232</v>
       </c>
       <c r="C12">
-        <v>-0.0103926828672675</v>
+        <v>0.007490723806844692</v>
       </c>
       <c r="D12">
-        <v>-0.09460446071595903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321676932918964</v>
+      </c>
+      <c r="E12">
+        <v>0.04684038181817887</v>
+      </c>
+      <c r="F12">
+        <v>-0.0288677046411462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04119107458726421</v>
+        <v>0.04177408102022515</v>
       </c>
       <c r="C13">
-        <v>-0.004092651275468655</v>
+        <v>0.002464589451183437</v>
       </c>
       <c r="D13">
-        <v>-0.03756924506599059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05355153778016522</v>
+      </c>
+      <c r="E13">
+        <v>-0.004613061062781261</v>
+      </c>
+      <c r="F13">
+        <v>-0.0005534829565677446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02293318645473245</v>
+        <v>0.02408596835891108</v>
       </c>
       <c r="C14">
-        <v>-0.01449186952455763</v>
+        <v>0.01380812869371729</v>
       </c>
       <c r="D14">
-        <v>-0.02436038857506886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03264058135227665</v>
+      </c>
+      <c r="E14">
+        <v>0.01878031110611243</v>
+      </c>
+      <c r="F14">
+        <v>-0.01291060464306682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03705109723816553</v>
+        <v>0.03264145544455332</v>
       </c>
       <c r="C15">
-        <v>-0.005730564854939636</v>
+        <v>0.004535285105034167</v>
       </c>
       <c r="D15">
-        <v>-0.02329244659178449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04475172709764576</v>
+      </c>
+      <c r="E15">
+        <v>0.005913452039668358</v>
+      </c>
+      <c r="F15">
+        <v>-0.02439707266866883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07854941680364529</v>
+        <v>0.07412905789524202</v>
       </c>
       <c r="C16">
-        <v>-0.004582559504478549</v>
+        <v>0.0007460948356403931</v>
       </c>
       <c r="D16">
-        <v>-0.09269721955886905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278007780947843</v>
+      </c>
+      <c r="E16">
+        <v>0.06131814976242867</v>
+      </c>
+      <c r="F16">
+        <v>-0.02700006108560834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007225449488371015</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0001915436837211869</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001107810340423291</v>
+      </c>
+      <c r="E17">
+        <v>0.000661948645526137</v>
+      </c>
+      <c r="F17">
+        <v>0.0009624129370209145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.003709977754416473</v>
+        <v>0.03585547460687905</v>
       </c>
       <c r="C18">
-        <v>0.000289753403471398</v>
+        <v>-0.003085841367869968</v>
       </c>
       <c r="D18">
-        <v>-0.002556144304988727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0161465981839677</v>
+      </c>
+      <c r="E18">
+        <v>-0.009382533416423332</v>
+      </c>
+      <c r="F18">
+        <v>0.008874976368343128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06248459429983313</v>
+        <v>0.06148263807025359</v>
       </c>
       <c r="C20">
-        <v>-0.00372055212154415</v>
+        <v>-0.0001286162536006577</v>
       </c>
       <c r="D20">
-        <v>-0.03937275317751478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07791519617509471</v>
+      </c>
+      <c r="E20">
+        <v>0.05660715417086154</v>
+      </c>
+      <c r="F20">
+        <v>-0.02495585671939836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04429476883520945</v>
+        <v>0.04063728402979454</v>
       </c>
       <c r="C21">
-        <v>-0.008269157095629089</v>
+        <v>0.006345230208652712</v>
       </c>
       <c r="D21">
-        <v>-0.01224850178063097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03793875920619379</v>
+      </c>
+      <c r="E21">
+        <v>-0.001901385806869728</v>
+      </c>
+      <c r="F21">
+        <v>0.02560158235024689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02828523019886703</v>
+        <v>0.04313494676432259</v>
       </c>
       <c r="C22">
-        <v>4.755021388065746e-05</v>
+        <v>0.0003928516605364073</v>
       </c>
       <c r="D22">
-        <v>0.02117357121968798</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006633871141807374</v>
+      </c>
+      <c r="E22">
+        <v>0.0345807939867426</v>
+      </c>
+      <c r="F22">
+        <v>0.03727889478002686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02823694425670674</v>
+        <v>0.0431108236023562</v>
       </c>
       <c r="C23">
-        <v>5.329774330658529e-05</v>
+        <v>0.0003844980626653916</v>
       </c>
       <c r="D23">
-        <v>0.02116233652883548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006649275486359318</v>
+      </c>
+      <c r="E23">
+        <v>0.03476348127416357</v>
+      </c>
+      <c r="F23">
+        <v>0.03724242071722533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08491305389127549</v>
+        <v>0.07975344262240337</v>
       </c>
       <c r="C24">
-        <v>-0.004298110878781017</v>
+        <v>0.00135888562455612</v>
       </c>
       <c r="D24">
-        <v>-0.1018359070197457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.121689646946953</v>
+      </c>
+      <c r="E24">
+        <v>0.04929594587011443</v>
+      </c>
+      <c r="F24">
+        <v>-0.02751693803527126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09321491388082601</v>
+        <v>0.08516983130948344</v>
       </c>
       <c r="C25">
-        <v>-0.006164509765739378</v>
+        <v>0.004162839092848805</v>
       </c>
       <c r="D25">
-        <v>-0.09076947146427511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094828151812759</v>
+      </c>
+      <c r="E25">
+        <v>0.0326142895032483</v>
+      </c>
+      <c r="F25">
+        <v>-0.02754818178371868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05875492733932705</v>
+        <v>0.0585976223677411</v>
       </c>
       <c r="C26">
-        <v>-0.0159755376355815</v>
+        <v>0.01421894970828806</v>
       </c>
       <c r="D26">
-        <v>-0.01291748229861349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04119215886651049</v>
+      </c>
+      <c r="E26">
+        <v>0.02852760338841917</v>
+      </c>
+      <c r="F26">
+        <v>0.006434320535110967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1357581344210128</v>
+        <v>0.1425706307027956</v>
       </c>
       <c r="C28">
-        <v>-0.001092532084131928</v>
+        <v>0.02208015310074947</v>
       </c>
       <c r="D28">
-        <v>0.2717466671639888</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.260998471557734</v>
+      </c>
+      <c r="E28">
+        <v>-0.06736105845759334</v>
+      </c>
+      <c r="F28">
+        <v>-0.008070705411462476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02449967610851648</v>
+        <v>0.02842483016269537</v>
       </c>
       <c r="C29">
-        <v>-0.009148963364849078</v>
+        <v>0.008622432947011224</v>
       </c>
       <c r="D29">
-        <v>-0.01760957155392261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0309600230408263</v>
+      </c>
+      <c r="E29">
+        <v>0.01377118659518275</v>
+      </c>
+      <c r="F29">
+        <v>0.01342076758948804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08851102523280374</v>
+        <v>0.05930744923333569</v>
       </c>
       <c r="C30">
-        <v>-0.002431814236141906</v>
+        <v>0.002486397641911123</v>
       </c>
       <c r="D30">
-        <v>-0.07080643764281844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08976870148063106</v>
+      </c>
+      <c r="E30">
+        <v>0.01609743006348871</v>
+      </c>
+      <c r="F30">
+        <v>-0.07875324171622575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04361607633904177</v>
+        <v>0.05075779754832011</v>
       </c>
       <c r="C31">
-        <v>-0.01494220178247854</v>
+        <v>0.01528391647916148</v>
       </c>
       <c r="D31">
-        <v>-0.01929171933408326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02509397532719224</v>
+      </c>
+      <c r="E31">
+        <v>0.02850233372600425</v>
+      </c>
+      <c r="F31">
+        <v>0.001169006338862775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05315324750607486</v>
+        <v>0.05125018560790285</v>
       </c>
       <c r="C32">
-        <v>0.001102042360929926</v>
+        <v>-0.001901140432364614</v>
       </c>
       <c r="D32">
-        <v>-0.01741537026225526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03516465557334063</v>
+      </c>
+      <c r="E32">
+        <v>0.03322640438628525</v>
+      </c>
+      <c r="F32">
+        <v>-0.00379056063904133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09784410019824837</v>
+        <v>0.08931559862634253</v>
       </c>
       <c r="C33">
-        <v>-0.008029384751146822</v>
+        <v>0.006604823991618629</v>
       </c>
       <c r="D33">
-        <v>-0.06711763094704082</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1011317566614313</v>
+      </c>
+      <c r="E33">
+        <v>0.04381611901839921</v>
+      </c>
+      <c r="F33">
+        <v>-0.03747230361290024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.08085705846046018</v>
+        <v>0.06764918895022043</v>
       </c>
       <c r="C34">
-        <v>-0.01086984221333309</v>
+        <v>0.00984458996236953</v>
       </c>
       <c r="D34">
-        <v>-0.08973569314462986</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1094858881406953</v>
+      </c>
+      <c r="E34">
+        <v>0.03481902107024099</v>
+      </c>
+      <c r="F34">
+        <v>-0.03369912532665016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02675125825722525</v>
+        <v>0.02478091769071296</v>
       </c>
       <c r="C35">
-        <v>-0.0007764935999517912</v>
+        <v>0.002444484535157615</v>
       </c>
       <c r="D35">
-        <v>-0.001747207696088741</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01115856043456876</v>
+      </c>
+      <c r="E35">
+        <v>0.01171745893070303</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006744778327965581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01695831283669193</v>
+        <v>0.02762831413812434</v>
       </c>
       <c r="C36">
-        <v>-0.008984511190675098</v>
+        <v>0.006788365731256461</v>
       </c>
       <c r="D36">
-        <v>-0.03096202431740228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03986820009108227</v>
+      </c>
+      <c r="E36">
+        <v>0.01663345255594339</v>
+      </c>
+      <c r="F36">
+        <v>-0.01524111148797019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.001033226050276607</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006361190400181257</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002451638911526895</v>
+      </c>
+      <c r="E37">
+        <v>-0.001060415570655991</v>
+      </c>
+      <c r="F37">
+        <v>-0.0009544604327143703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0001281779685108117</v>
+        <v>3.27828356678839e-05</v>
       </c>
       <c r="C38">
-        <v>1.885461607013843e-06</v>
+        <v>-7.416129950352662e-05</v>
       </c>
       <c r="D38">
-        <v>-0.001509458129486685</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0008532841039756773</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001265410675317509</v>
+      </c>
+      <c r="F38">
+        <v>-0.0004310246919194927</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1255577036874992</v>
+        <v>0.1041962821694405</v>
       </c>
       <c r="C39">
-        <v>-0.01739638179550483</v>
+        <v>0.01529197805075086</v>
       </c>
       <c r="D39">
-        <v>-0.1375037714742639</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1552062643774053</v>
+      </c>
+      <c r="E39">
+        <v>0.06030741800574916</v>
+      </c>
+      <c r="F39">
+        <v>-0.02970643407553709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0317472904294967</v>
+        <v>0.04126568914848328</v>
       </c>
       <c r="C40">
-        <v>-0.007579658190598699</v>
+        <v>0.007000563038227167</v>
       </c>
       <c r="D40">
-        <v>0.01696845521474443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03011938316666842</v>
+      </c>
+      <c r="E40">
+        <v>0.002135931107292703</v>
+      </c>
+      <c r="F40">
+        <v>0.01593935645328904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02457328065072214</v>
+        <v>0.02832846165611466</v>
       </c>
       <c r="C41">
-        <v>-0.006286390799941836</v>
+        <v>0.0069575300173751</v>
       </c>
       <c r="D41">
-        <v>1.999555587660954e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01030585715252007</v>
+      </c>
+      <c r="E41">
+        <v>0.01211289456826491</v>
+      </c>
+      <c r="F41">
+        <v>0.005937339193553244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03174124758635789</v>
+        <v>0.04088574192049708</v>
       </c>
       <c r="C43">
-        <v>-0.007889345703980808</v>
+        <v>0.007019581483439075</v>
       </c>
       <c r="D43">
-        <v>-0.006483793398500096</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01886538100931574</v>
+      </c>
+      <c r="E43">
+        <v>0.02539643925012924</v>
+      </c>
+      <c r="F43">
+        <v>0.01262088629545846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1005566522131424</v>
+        <v>0.07928274104646817</v>
       </c>
       <c r="C44">
-        <v>-0.01993122446724673</v>
+        <v>0.01906774489364443</v>
       </c>
       <c r="D44">
-        <v>-0.07354078382917545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09793896148906307</v>
+      </c>
+      <c r="E44">
+        <v>0.06231137737401408</v>
+      </c>
+      <c r="F44">
+        <v>-0.1544649765793104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0133255706837193</v>
+        <v>0.02340429101990572</v>
       </c>
       <c r="C46">
-        <v>-0.004107214047283599</v>
+        <v>0.003328273440666255</v>
       </c>
       <c r="D46">
-        <v>0.001308285459047393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01274888215814732</v>
+      </c>
+      <c r="E46">
+        <v>0.02618534675469761</v>
+      </c>
+      <c r="F46">
+        <v>0.006570974713182766</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03953503270884117</v>
+        <v>0.0522436326055011</v>
       </c>
       <c r="C47">
-        <v>-0.003212135722103774</v>
+        <v>0.003310537474379352</v>
       </c>
       <c r="D47">
-        <v>0.00835703479857927</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.013938785331307</v>
+      </c>
+      <c r="E47">
+        <v>0.02349785918763381</v>
+      </c>
+      <c r="F47">
+        <v>0.0318406669269013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04888133571438181</v>
+        <v>0.05028354890158441</v>
       </c>
       <c r="C48">
-        <v>-0.003131219034795271</v>
+        <v>0.002043277068664941</v>
       </c>
       <c r="D48">
-        <v>-0.03726435470847208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05049162201499678</v>
+      </c>
+      <c r="E48">
+        <v>-0.004707315459644587</v>
+      </c>
+      <c r="F48">
+        <v>-0.01003756403780616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2042770220107112</v>
+        <v>0.2005657410439692</v>
       </c>
       <c r="C49">
-        <v>-0.008400076361667041</v>
+        <v>0.01865970720033849</v>
       </c>
       <c r="D49">
-        <v>-0.01073168966847628</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006115201660102884</v>
+      </c>
+      <c r="E49">
+        <v>0.03172411696304418</v>
+      </c>
+      <c r="F49">
+        <v>-0.03750437430259368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04505407912476552</v>
+        <v>0.05112951273279927</v>
       </c>
       <c r="C50">
-        <v>-0.0106092469807525</v>
+        <v>0.01104598022260068</v>
       </c>
       <c r="D50">
-        <v>-0.01635281561750958</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02473896983668338</v>
+      </c>
+      <c r="E50">
+        <v>0.02998357125460258</v>
+      </c>
+      <c r="F50">
+        <v>-0.009780959586805983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1608839540288129</v>
+        <v>0.1473359765330528</v>
       </c>
       <c r="C52">
-        <v>-0.008699649224627438</v>
+        <v>0.01671424221076356</v>
       </c>
       <c r="D52">
-        <v>-0.05323274617135202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04310449755831885</v>
+      </c>
+      <c r="E52">
+        <v>0.01958996871458879</v>
+      </c>
+      <c r="F52">
+        <v>-0.04345546228048772</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1723776909037442</v>
+        <v>0.1712101579487738</v>
       </c>
       <c r="C53">
-        <v>-0.008046713817170622</v>
+        <v>0.01938775745054307</v>
       </c>
       <c r="D53">
-        <v>-0.0224247630556027</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005696465499258755</v>
+      </c>
+      <c r="E53">
+        <v>0.02863759551981156</v>
+      </c>
+      <c r="F53">
+        <v>-0.0737787935123754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02169820061502514</v>
+        <v>0.02097786542002766</v>
       </c>
       <c r="C54">
-        <v>-0.01108173175284919</v>
+        <v>0.01133693490914687</v>
       </c>
       <c r="D54">
-        <v>-0.02082101038017763</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03419520866358984</v>
+      </c>
+      <c r="E54">
+        <v>0.02155925333683906</v>
+      </c>
+      <c r="F54">
+        <v>0.005568168333526071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1121850288147398</v>
+        <v>0.1140949052957765</v>
       </c>
       <c r="C55">
-        <v>-0.009715679980282846</v>
+        <v>0.01713757498177598</v>
       </c>
       <c r="D55">
-        <v>-0.01195296389144918</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008222963331010488</v>
+      </c>
+      <c r="E55">
+        <v>0.02376468629560156</v>
+      </c>
+      <c r="F55">
+        <v>-0.04731864647590529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1755745509383539</v>
+        <v>0.1767837201551785</v>
       </c>
       <c r="C56">
-        <v>-0.006467034596410989</v>
+        <v>0.01729093012301986</v>
       </c>
       <c r="D56">
-        <v>-0.00298844817108937</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001237481564562689</v>
+      </c>
+      <c r="E56">
+        <v>0.03336123161653692</v>
+      </c>
+      <c r="F56">
+        <v>-0.0521400549668635</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03022081083970472</v>
+        <v>0.04469796612863905</v>
       </c>
       <c r="C58">
-        <v>-0.006627055961582549</v>
+        <v>-0.000526460643819755</v>
       </c>
       <c r="D58">
-        <v>-0.05237749233829959</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07162259436397808</v>
+      </c>
+      <c r="E58">
+        <v>0.03158028918548301</v>
+      </c>
+      <c r="F58">
+        <v>0.0384833355890131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1606373953115626</v>
+        <v>0.1678933504609047</v>
       </c>
       <c r="C59">
-        <v>-0.0006632768338620148</v>
+        <v>0.02210480583374798</v>
       </c>
       <c r="D59">
-        <v>0.2352784954439739</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2170082533585579</v>
+      </c>
+      <c r="E59">
+        <v>-0.0461599393130425</v>
+      </c>
+      <c r="F59">
+        <v>0.03565557161213607</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2494614456839393</v>
+        <v>0.2317800484776527</v>
       </c>
       <c r="C60">
-        <v>0.01546622499148134</v>
+        <v>-0.002668342415212485</v>
       </c>
       <c r="D60">
-        <v>-0.06130841290153664</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04206487652179564</v>
+      </c>
+      <c r="E60">
+        <v>0.009825103263114116</v>
+      </c>
+      <c r="F60">
+        <v>0.004985091188103811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1000335948395371</v>
+        <v>0.08020968851380102</v>
       </c>
       <c r="C61">
-        <v>-0.01178413048126076</v>
+        <v>0.01104375886369498</v>
       </c>
       <c r="D61">
-        <v>-0.09282665436362737</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178844380764822</v>
+      </c>
+      <c r="E61">
+        <v>0.03977918736104485</v>
+      </c>
+      <c r="F61">
+        <v>-0.01294889049980137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1733369787945213</v>
+        <v>0.169698693949535</v>
       </c>
       <c r="C62">
-        <v>-0.01036312066416341</v>
+        <v>0.02031124963303756</v>
       </c>
       <c r="D62">
-        <v>-0.005968916852083574</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006307364092761987</v>
+      </c>
+      <c r="E62">
+        <v>0.03379044003454858</v>
+      </c>
+      <c r="F62">
+        <v>-0.03607293024270301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04824063189283255</v>
+        <v>0.0456658615092307</v>
       </c>
       <c r="C63">
-        <v>-0.003722604433842844</v>
+        <v>0.001670034726659308</v>
       </c>
       <c r="D63">
-        <v>-0.03752257116503878</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05864674551154309</v>
+      </c>
+      <c r="E63">
+        <v>0.02296559722662271</v>
+      </c>
+      <c r="F63">
+        <v>-0.002932202521639018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.102044413832009</v>
+        <v>0.110013170092808</v>
       </c>
       <c r="C64">
-        <v>-0.009529710837409413</v>
+        <v>0.01112608999859884</v>
       </c>
       <c r="D64">
-        <v>-0.02160259013542987</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04403874985257543</v>
+      </c>
+      <c r="E64">
+        <v>0.02206789206750609</v>
+      </c>
+      <c r="F64">
+        <v>-0.02608106173293423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1296118742468205</v>
+        <v>0.1496936291214573</v>
       </c>
       <c r="C65">
-        <v>-0.02659950454766981</v>
+        <v>0.03365685783539395</v>
       </c>
       <c r="D65">
-        <v>0.01955825746461241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04323595207489572</v>
+      </c>
+      <c r="E65">
+        <v>0.005566000235337875</v>
+      </c>
+      <c r="F65">
+        <v>-0.04017101939132773</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1510972520965747</v>
+        <v>0.1236157775753961</v>
       </c>
       <c r="C66">
-        <v>-0.01357841322884677</v>
+        <v>0.01318098149118898</v>
       </c>
       <c r="D66">
-        <v>-0.1296477570278676</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1430764516780854</v>
+      </c>
+      <c r="E66">
+        <v>0.06600825248335913</v>
+      </c>
+      <c r="F66">
+        <v>-0.03366074792026347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05616673908995376</v>
+        <v>0.05789761926215186</v>
       </c>
       <c r="C67">
-        <v>-0.002480959567207388</v>
+        <v>0.002739731478109009</v>
       </c>
       <c r="D67">
-        <v>-0.0437349691501717</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05620059686654962</v>
+      </c>
+      <c r="E67">
+        <v>0.01677862744752249</v>
+      </c>
+      <c r="F67">
+        <v>0.03150626709532865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1114798226592659</v>
+        <v>0.1165779878747984</v>
       </c>
       <c r="C68">
-        <v>-0.01199076064986416</v>
+        <v>0.03264356539522231</v>
       </c>
       <c r="D68">
-        <v>0.2522381983692565</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2604697291186219</v>
+      </c>
+      <c r="E68">
+        <v>-0.08695405141627223</v>
+      </c>
+      <c r="F68">
+        <v>-0.004350368429012558</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03423299651027683</v>
+        <v>0.03944806810159802</v>
       </c>
       <c r="C69">
-        <v>0.0001136457638804152</v>
+        <v>0.001206557357219648</v>
       </c>
       <c r="D69">
-        <v>-0.007344796802413059</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007967703772660095</v>
+      </c>
+      <c r="E69">
+        <v>0.02367224661712722</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005992572383068038</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.04824870569219056</v>
+        <v>0.06691285943451775</v>
       </c>
       <c r="C70">
-        <v>0.02532340533889633</v>
+        <v>-0.02749819635919137</v>
       </c>
       <c r="D70">
-        <v>0.04270619372769863</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02437570585791545</v>
+      </c>
+      <c r="E70">
+        <v>-0.03414203572054512</v>
+      </c>
+      <c r="F70">
+        <v>0.1821628182705979</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1240211482599175</v>
+        <v>0.136494246987351</v>
       </c>
       <c r="C71">
-        <v>-0.01593944572438607</v>
+        <v>0.03699554292217819</v>
       </c>
       <c r="D71">
-        <v>0.2693706721535522</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2722230068220898</v>
+      </c>
+      <c r="E71">
+        <v>-0.09755413672835143</v>
+      </c>
+      <c r="F71">
+        <v>-0.009643312447962451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1336602266483491</v>
+        <v>0.1427975650941119</v>
       </c>
       <c r="C72">
-        <v>-0.02021972018143316</v>
+        <v>0.02686359483025383</v>
       </c>
       <c r="D72">
-        <v>0.0014872235257282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002496897697514643</v>
+      </c>
+      <c r="E72">
+        <v>0.03683663483636991</v>
+      </c>
+      <c r="F72">
+        <v>-0.03160880083794645</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2041625211070995</v>
+        <v>0.2033694498404731</v>
       </c>
       <c r="C73">
-        <v>-0.001979056082416787</v>
+        <v>0.01247654348788002</v>
       </c>
       <c r="D73">
-        <v>-0.006996027441920866</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01780087087741128</v>
+      </c>
+      <c r="E73">
+        <v>0.06334628037675234</v>
+      </c>
+      <c r="F73">
+        <v>-0.03847213567161865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09934741795842422</v>
+        <v>0.0948535266914899</v>
       </c>
       <c r="C74">
-        <v>-0.005837112796087305</v>
+        <v>0.01330819654152522</v>
       </c>
       <c r="D74">
-        <v>-0.02518529207157033</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01707814008936222</v>
+      </c>
+      <c r="E74">
+        <v>0.04381932239960662</v>
+      </c>
+      <c r="F74">
+        <v>-0.05773853929958611</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1334588496552737</v>
+        <v>0.1273339146156865</v>
       </c>
       <c r="C75">
-        <v>-0.02113148911979406</v>
+        <v>0.02793291867126859</v>
       </c>
       <c r="D75">
-        <v>-0.02853768432599032</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0309567774884033</v>
+      </c>
+      <c r="E75">
+        <v>0.05846870630463586</v>
+      </c>
+      <c r="F75">
+        <v>-0.02231887889988893</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07072389806093554</v>
+        <v>0.08741299571442125</v>
       </c>
       <c r="C77">
-        <v>-0.01264831356646469</v>
+        <v>0.00795023406835196</v>
       </c>
       <c r="D77">
-        <v>-0.1015698580210875</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.111405695678361</v>
+      </c>
+      <c r="E77">
+        <v>0.03776724780906604</v>
+      </c>
+      <c r="F77">
+        <v>-0.03632530989560114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1002907676493236</v>
+        <v>0.09981995414885771</v>
       </c>
       <c r="C78">
-        <v>-0.04118566564012739</v>
+        <v>0.03916148667199303</v>
       </c>
       <c r="D78">
-        <v>-0.09004635529068281</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1139388460055236</v>
+      </c>
+      <c r="E78">
+        <v>0.07415556922398628</v>
+      </c>
+      <c r="F78">
+        <v>-0.04726481268143722</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1642711549509118</v>
+        <v>0.1640207682680182</v>
       </c>
       <c r="C79">
-        <v>-0.01404018637354696</v>
+        <v>0.02272312081053581</v>
       </c>
       <c r="D79">
-        <v>0.0001682286696583223</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01438031221795625</v>
+      </c>
+      <c r="E79">
+        <v>0.04608239353768406</v>
+      </c>
+      <c r="F79">
+        <v>-0.01186930336922308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08943401667213111</v>
+        <v>0.08246370284021529</v>
       </c>
       <c r="C80">
-        <v>0.002280691451220901</v>
+        <v>-0.001104670187755994</v>
       </c>
       <c r="D80">
-        <v>-0.05173245117203457</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05591918959390342</v>
+      </c>
+      <c r="E80">
+        <v>0.0359906723235852</v>
+      </c>
+      <c r="F80">
+        <v>0.02259570872583781</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1197875669889906</v>
+        <v>0.1196996753967496</v>
       </c>
       <c r="C81">
-        <v>-0.0245998668116056</v>
+        <v>0.03184761719662332</v>
       </c>
       <c r="D81">
-        <v>-0.04113682148483071</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01545267696954923</v>
+      </c>
+      <c r="E81">
+        <v>0.05740604126402312</v>
+      </c>
+      <c r="F81">
+        <v>-0.01791427753961224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1683255149829494</v>
+        <v>0.1659119288832743</v>
       </c>
       <c r="C82">
-        <v>-0.01395056563964812</v>
+        <v>0.0247834723176553</v>
       </c>
       <c r="D82">
-        <v>-0.03493374515553632</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003873065403708069</v>
+      </c>
+      <c r="E82">
+        <v>0.02630673505099318</v>
+      </c>
+      <c r="F82">
+        <v>-0.08181207731676501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06718116999325677</v>
+        <v>0.0586871370884177</v>
       </c>
       <c r="C83">
-        <v>-0.003571052784003183</v>
+        <v>0.002591967804479161</v>
       </c>
       <c r="D83">
-        <v>-0.03027082663384425</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05113533176434105</v>
+      </c>
+      <c r="E83">
+        <v>0.003072630067053213</v>
+      </c>
+      <c r="F83">
+        <v>0.03067702190768651</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06814322872369218</v>
+        <v>0.05906025711568957</v>
       </c>
       <c r="C84">
-        <v>-0.01143894958133661</v>
+        <v>0.01095944827537186</v>
       </c>
       <c r="D84">
-        <v>-0.05498989694805129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06379060054648816</v>
+      </c>
+      <c r="E84">
+        <v>0.007241003688401053</v>
+      </c>
+      <c r="F84">
+        <v>-0.00542251176459787</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1336708089389997</v>
+        <v>0.1353895897976157</v>
       </c>
       <c r="C85">
-        <v>-0.02131439205504205</v>
+        <v>0.02792057767451059</v>
       </c>
       <c r="D85">
-        <v>-0.01971558890775547</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009859879000481995</v>
+      </c>
+      <c r="E85">
+        <v>0.03634804150410309</v>
+      </c>
+      <c r="F85">
+        <v>-0.04795815337055402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.07179069159283336</v>
+        <v>0.09411190604975385</v>
       </c>
       <c r="C86">
-        <v>0.000570314228983089</v>
+        <v>-0.005618734829098282</v>
       </c>
       <c r="D86">
-        <v>0.06793089118869801</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0406615360969635</v>
+      </c>
+      <c r="E86">
+        <v>0.2275617018776533</v>
+      </c>
+      <c r="F86">
+        <v>0.9050696605398293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1176266786629724</v>
+        <v>0.09428687636156004</v>
       </c>
       <c r="C87">
-        <v>-0.0210144588476173</v>
+        <v>0.01901025418323882</v>
       </c>
       <c r="D87">
-        <v>-0.0609414917688814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09408434432846258</v>
+      </c>
+      <c r="E87">
+        <v>-0.05334028924399711</v>
+      </c>
+      <c r="F87">
+        <v>-0.04713861442053201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05501853144854018</v>
+        <v>0.0608503817126335</v>
       </c>
       <c r="C88">
-        <v>-0.003427955678979651</v>
+        <v>0.00216944464392512</v>
       </c>
       <c r="D88">
-        <v>-0.04120063561732451</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04950239203668523</v>
+      </c>
+      <c r="E88">
+        <v>0.02401841799704785</v>
+      </c>
+      <c r="F88">
+        <v>-0.01403812327639909</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1230131802860759</v>
+        <v>0.1308287075044079</v>
       </c>
       <c r="C89">
-        <v>0.005693292104551131</v>
+        <v>0.01357792171608213</v>
       </c>
       <c r="D89">
-        <v>0.2770284145322243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2469422137473449</v>
+      </c>
+      <c r="E89">
+        <v>-0.08920640279683971</v>
+      </c>
+      <c r="F89">
+        <v>0.008594843762377168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1291337486902267</v>
+        <v>0.1513599449619627</v>
       </c>
       <c r="C90">
-        <v>-0.0131352646005284</v>
+        <v>0.03372210006696325</v>
       </c>
       <c r="D90">
-        <v>0.2734474701726631</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2701053793448727</v>
+      </c>
+      <c r="E90">
+        <v>-0.1129343815294912</v>
+      </c>
+      <c r="F90">
+        <v>0.007715659834620778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1159204493652884</v>
+        <v>0.1208169648749703</v>
       </c>
       <c r="C91">
-        <v>-0.01091094781802938</v>
+        <v>0.01956103012549592</v>
       </c>
       <c r="D91">
-        <v>0.01040783743957766</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01443769940923176</v>
+      </c>
+      <c r="E91">
+        <v>0.05563549299283858</v>
+      </c>
+      <c r="F91">
+        <v>0.0009279210704276184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1458627691685069</v>
+        <v>0.1486267380718346</v>
       </c>
       <c r="C92">
-        <v>-0.0007743326234934677</v>
+        <v>0.02460511221264686</v>
       </c>
       <c r="D92">
-        <v>0.3045073498112352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2916707756816582</v>
+      </c>
+      <c r="E92">
+        <v>-0.1017254678529046</v>
+      </c>
+      <c r="F92">
+        <v>0.01276783755243882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1299234641279575</v>
+        <v>0.1522706484134082</v>
       </c>
       <c r="C93">
-        <v>-0.008867797122621974</v>
+        <v>0.02892385048868615</v>
       </c>
       <c r="D93">
-        <v>0.2613383708175921</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2665924014505091</v>
+      </c>
+      <c r="E93">
+        <v>-0.07891844321252924</v>
+      </c>
+      <c r="F93">
+        <v>-0.003514857333192146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1349190371386406</v>
+        <v>0.1281937502530267</v>
       </c>
       <c r="C94">
-        <v>-0.01742096701117421</v>
+        <v>0.02432789608155585</v>
       </c>
       <c r="D94">
-        <v>-0.04570378766529828</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04227346691881136</v>
+      </c>
+      <c r="E94">
+        <v>0.05739977468187223</v>
+      </c>
+      <c r="F94">
+        <v>-0.03614436399933152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1188763964432521</v>
+        <v>0.126647315071134</v>
       </c>
       <c r="C95">
-        <v>-0.005792753062595626</v>
+        <v>0.002931828421164209</v>
       </c>
       <c r="D95">
-        <v>-0.06878179134985049</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09495885852669156</v>
+      </c>
+      <c r="E95">
+        <v>0.049220030731624</v>
+      </c>
+      <c r="F95">
+        <v>0.005121001864043791</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.05723889530755176</v>
+        <v>0.1075892992896782</v>
       </c>
       <c r="C96">
-        <v>0.992866387320006</v>
+        <v>-0.9872682147866205</v>
       </c>
       <c r="D96">
-        <v>0.003469723997150102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05147207034495483</v>
+      </c>
+      <c r="E96">
+        <v>0.05342583725611908</v>
+      </c>
+      <c r="F96">
+        <v>-0.04233710212813242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1968486510682413</v>
+        <v>0.1925576194129878</v>
       </c>
       <c r="C97">
-        <v>0.0184422038992234</v>
+        <v>-0.006890158576823199</v>
       </c>
       <c r="D97">
-        <v>0.04175872467080181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01874843795544425</v>
+      </c>
+      <c r="E97">
+        <v>0.02176385748430005</v>
+      </c>
+      <c r="F97">
+        <v>0.09584024444737863</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2002285113348561</v>
+        <v>0.2061576690649876</v>
       </c>
       <c r="C98">
-        <v>0.001386024193305085</v>
+        <v>0.006855776789556712</v>
       </c>
       <c r="D98">
-        <v>0.01379196088570082</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01267570753127775</v>
+      </c>
+      <c r="E98">
+        <v>-0.07862299958711347</v>
+      </c>
+      <c r="F98">
+        <v>0.09336607617250318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05364294209261845</v>
+        <v>0.05427627063374501</v>
       </c>
       <c r="C99">
-        <v>0.005197955425090938</v>
+        <v>-0.004749008026742972</v>
       </c>
       <c r="D99">
-        <v>-0.02478564740114158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04023325194857799</v>
+      </c>
+      <c r="E99">
+        <v>0.02249832263229759</v>
+      </c>
+      <c r="F99">
+        <v>-0.002367407776646249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1442090348741681</v>
+        <v>0.1268246578358002</v>
       </c>
       <c r="C100">
-        <v>0.04087885410946591</v>
+        <v>-0.05411273363013586</v>
       </c>
       <c r="D100">
-        <v>-0.4446892377124225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.347040877961795</v>
+      </c>
+      <c r="E100">
+        <v>-0.8858830923180305</v>
+      </c>
+      <c r="F100">
+        <v>0.1569397207587917</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02425933969516097</v>
+        <v>0.02838633394167827</v>
       </c>
       <c r="C101">
-        <v>-0.009123603417981229</v>
+        <v>0.008647728956678653</v>
       </c>
       <c r="D101">
-        <v>-0.01683236671346326</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03056323432632644</v>
+      </c>
+      <c r="E101">
+        <v>0.01316069943890848</v>
+      </c>
+      <c r="F101">
+        <v>0.01461599456511352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
